--- a/season-4/141-ranking-products/data/augmented-emerald-cup-winners-2023.xlsx
+++ b/season-4/141-ranking-products/data/augmented-emerald-cup-winners-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="541">
   <si>
     <t>rank</t>
   </si>
@@ -25,12 +25,12 @@
     <t>entry_name</t>
   </si>
   <si>
+    <t>coa_id</t>
+  </si>
+  <si>
     <t>product_name</t>
   </si>
   <si>
-    <t>coa_id</t>
-  </si>
-  <si>
     <t>lab_results_url</t>
   </si>
   <si>
@@ -799,6 +799,174 @@
     <t>Emerald Spirit Botanicals – Pink Boost Goddess – 1:1 THC:THCV – Phytofacts Report</t>
   </si>
   <si>
+    <t xml:space="preserve"> 220301Q051-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230316R052-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220303R034-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230311S025-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220301Q053-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220301Q043-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220228R049-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307R080-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S005-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307S049-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220301Q052-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307R078-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230316R015-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220224R006-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220228R065-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220301Q055-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220224R008-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S035-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307S054-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307R023-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S019-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S029-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220303R049-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220303R044-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220304S052-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220304S050-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220304S051-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230217R025-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230317R035-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230311S030-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230311S004-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220304S031-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230311S024-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220317Q005-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230311S048-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230311S005-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220304S019-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S047-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220224R003-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S037-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230316R025-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220224Q051-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307R097-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220224Q070-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230317R011-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220303R029-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220224Q031-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307R087-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220301Q038-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220307R043-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230316U014-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230317R039-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230314U025-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230316U002-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230316U006-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 230313S039-001</t>
+  </si>
+  <si>
     <t>Double OG Chem #15</t>
   </si>
   <si>
@@ -1303,109 +1471,85 @@
     <t>1:1 THC:THCV – Phytofacts Report</t>
   </si>
   <si>
-    <t xml:space="preserve"> 230316R052-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S025-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230313S005-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230316R015-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230313S035-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230313S019-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230313S029-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S036-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230217R025-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230317R035-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S030-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S004-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230316R016-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S024-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S015-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S048-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230311S005-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230317R042-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230313S047-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230313S037-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230316R025-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230317R011-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230316U014-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230317R039-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230314U025-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230316U002-001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 230316U006-001</t>
+    <t>https://client.sclabs.com/verify/ 220301Q051</t>
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230316R052</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220303R034</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230311S025</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220301Q053</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220301Q043</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220228R049</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220307R080</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230313S005</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220307S049</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220301Q052</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220307R078</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230316R015</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220224R006</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220228R065</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220301Q055</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220224R008</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230313S035</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220307S054</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220307R023</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230313S019</t>
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230313S029</t>
   </si>
   <si>
-    <t>https://client.sclabs.com/verify/ 230311S036</t>
+    <t>https://client.sclabs.com/verify/ 220303R049</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220303R044</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220304S052</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220304S050</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220304S051</t>
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230217R025</t>
@@ -1420,13 +1564,13 @@
     <t>https://client.sclabs.com/verify/ 230311S004</t>
   </si>
   <si>
-    <t>https://client.sclabs.com/verify/ 230316R016</t>
+    <t>https://client.sclabs.com/verify/ 220304S031</t>
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230311S024</t>
   </si>
   <si>
-    <t>https://client.sclabs.com/verify/ 230311S015</t>
+    <t>https://client.sclabs.com/verify/ 220317Q005</t>
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230311S048</t>
@@ -1435,21 +1579,48 @@
     <t>https://client.sclabs.com/verify/ 230311S005</t>
   </si>
   <si>
-    <t>https://client.sclabs.com/verify/ 230317R042</t>
+    <t>https://client.sclabs.com/verify/ 220304S019</t>
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230313S047</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220224R003</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230313S037</t>
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230316R025</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220224Q051</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220307R097</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220224Q070</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230317R011</t>
   </si>
   <si>
+    <t>https://client.sclabs.com/verify/ 220303R029</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220224Q031</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220307R087</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220301Q038</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 220307R043</t>
+  </si>
+  <si>
     <t>https://client.sclabs.com/verify/ 230316U014</t>
   </si>
   <si>
@@ -1463,6 +1634,9 @@
   </si>
   <si>
     <t>https://client.sclabs.com/verify/ 230316U006</t>
+  </si>
+  <si>
+    <t>https://client.sclabs.com/verify/ 230313S039</t>
   </si>
 </sst>
 </file>
@@ -1875,6 +2049,12 @@
       <c r="E2" t="s">
         <v>261</v>
       </c>
+      <c r="F2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -1893,10 +2073,10 @@
         <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>429</v>
+        <v>318</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1915,6 +2095,12 @@
       <c r="E4" t="s">
         <v>263</v>
       </c>
+      <c r="F4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -1929,8 +2115,8 @@
       <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
-        <v>264</v>
+      <c r="F5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1947,13 +2133,13 @@
         <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F6" t="s">
-        <v>430</v>
+        <v>321</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1969,8 +2155,8 @@
       <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="E7" t="s">
-        <v>266</v>
+      <c r="F7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1986,8 +2172,8 @@
       <c r="D8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" t="s">
-        <v>267</v>
+      <c r="F8" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2004,7 +2190,13 @@
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2021,7 +2213,13 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="F10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2038,7 +2236,13 @@
         <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2055,7 +2259,13 @@
         <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="F12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2072,13 +2282,13 @@
         <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
-        <v>431</v>
+        <v>328</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>458</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2095,7 +2305,13 @@
         <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2112,7 +2328,13 @@
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="F15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2129,7 +2351,13 @@
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="F16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2146,13 +2374,13 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>459</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2169,7 +2397,13 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="F18" t="s">
+        <v>333</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2186,7 +2420,13 @@
         <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="F19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2202,8 +2442,8 @@
       <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="E20" t="s">
-        <v>279</v>
+      <c r="F20" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2220,7 +2460,13 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="F21" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2237,7 +2483,13 @@
         <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="F22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2253,8 +2505,8 @@
       <c r="D23" t="s">
         <v>106</v>
       </c>
-      <c r="E23" t="s">
-        <v>281</v>
+      <c r="F23" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2271,13 +2523,13 @@
         <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F24" t="s">
-        <v>433</v>
+        <v>338</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2294,7 +2546,13 @@
         <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>283</v>
+        <v>279</v>
+      </c>
+      <c r="F25" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2311,7 +2569,13 @@
         <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>280</v>
+      </c>
+      <c r="F26" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2328,13 +2592,13 @@
         <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F27" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2350,8 +2614,8 @@
       <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="E28" t="s">
-        <v>286</v>
+      <c r="F28" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2368,13 +2632,13 @@
         <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F29" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2391,7 +2655,13 @@
         <v>113</v>
       </c>
       <c r="E30" t="s">
-        <v>288</v>
+        <v>283</v>
+      </c>
+      <c r="F30" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2408,7 +2678,13 @@
         <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>289</v>
+        <v>284</v>
+      </c>
+      <c r="F31" t="s">
+        <v>345</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2425,7 +2701,13 @@
         <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="F32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2442,13 +2724,13 @@
         <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F33" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2464,8 +2746,8 @@
       <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="E34" t="s">
-        <v>292</v>
+      <c r="F34" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2481,8 +2763,8 @@
       <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="E35" t="s">
-        <v>293</v>
+      <c r="F35" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2499,7 +2781,13 @@
         <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>294</v>
+        <v>287</v>
+      </c>
+      <c r="F36" t="s">
+        <v>350</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2516,13 +2804,13 @@
         <v>120</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F37" t="s">
-        <v>437</v>
+        <v>351</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2539,13 +2827,13 @@
         <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F38" t="s">
-        <v>438</v>
+        <v>352</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2562,13 +2850,13 @@
         <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F39" t="s">
-        <v>439</v>
+        <v>353</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2585,13 +2873,13 @@
         <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F40" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2607,8 +2895,8 @@
       <c r="D41" t="s">
         <v>124</v>
       </c>
-      <c r="E41" t="s">
-        <v>299</v>
+      <c r="F41" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2624,8 +2912,8 @@
       <c r="D42" t="s">
         <v>125</v>
       </c>
-      <c r="E42" t="s">
-        <v>300</v>
+      <c r="F42" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2642,13 +2930,13 @@
         <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F43" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2665,13 +2953,13 @@
         <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F44" t="s">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2688,13 +2976,13 @@
         <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>443</v>
+        <v>359</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2711,13 +2999,13 @@
         <v>129</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F46" t="s">
-        <v>444</v>
+        <v>360</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2733,8 +3021,8 @@
       <c r="D47" t="s">
         <v>130</v>
       </c>
-      <c r="E47" t="s">
-        <v>305</v>
+      <c r="F47" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2750,8 +3038,8 @@
       <c r="D48" t="s">
         <v>131</v>
       </c>
-      <c r="E48" t="s">
-        <v>306</v>
+      <c r="F48" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2768,13 +3056,13 @@
         <v>132</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F49" t="s">
-        <v>445</v>
+        <v>363</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2791,13 +3079,13 @@
         <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F50" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2813,8 +3101,8 @@
       <c r="D51" t="s">
         <v>134</v>
       </c>
-      <c r="E51" t="s">
-        <v>309</v>
+      <c r="F51" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2831,13 +3119,13 @@
         <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F52" t="s">
-        <v>447</v>
+        <v>366</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2854,7 +3142,13 @@
         <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>311</v>
+        <v>299</v>
+      </c>
+      <c r="F53" t="s">
+        <v>367</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2871,13 +3165,13 @@
         <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
+        <v>368</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2894,13 +3188,13 @@
         <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F55" t="s">
-        <v>449</v>
+        <v>369</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2917,7 +3211,13 @@
         <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>314</v>
+        <v>302</v>
+      </c>
+      <c r="F56" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2933,8 +3233,8 @@
       <c r="D57" t="s">
         <v>140</v>
       </c>
-      <c r="E57" t="s">
-        <v>315</v>
+      <c r="F57" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2951,7 +3251,13 @@
         <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>316</v>
+        <v>303</v>
+      </c>
+      <c r="F58" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2968,7 +3274,13 @@
         <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>304</v>
+      </c>
+      <c r="F59" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2985,13 +3297,13 @@
         <v>143</v>
       </c>
       <c r="E60" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F60" t="s">
-        <v>450</v>
+        <v>374</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3008,7 +3320,13 @@
         <v>144</v>
       </c>
       <c r="E61" t="s">
-        <v>319</v>
+        <v>306</v>
+      </c>
+      <c r="F61" t="s">
+        <v>375</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3024,8 +3342,8 @@
       <c r="D62" t="s">
         <v>145</v>
       </c>
-      <c r="E62" t="s">
-        <v>320</v>
+      <c r="F62" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3042,7 +3360,13 @@
         <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>321</v>
+        <v>307</v>
+      </c>
+      <c r="F63" t="s">
+        <v>377</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3059,10 +3383,16 @@
         <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>308</v>
+      </c>
+      <c r="F64" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3075,11 +3405,11 @@
       <c r="D65" t="s">
         <v>148</v>
       </c>
-      <c r="E65" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3092,11 +3422,11 @@
       <c r="D66" t="s">
         <v>149</v>
       </c>
-      <c r="E66" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3109,11 +3439,11 @@
       <c r="D67" t="s">
         <v>150</v>
       </c>
-      <c r="E67" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3126,11 +3456,11 @@
       <c r="D68" t="s">
         <v>151</v>
       </c>
-      <c r="E68" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3143,11 +3473,11 @@
       <c r="D69" t="s">
         <v>152</v>
       </c>
-      <c r="E69" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3161,10 +3491,16 @@
         <v>153</v>
       </c>
       <c r="E70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>309</v>
+      </c>
+      <c r="F70" t="s">
+        <v>384</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3177,11 +3513,11 @@
       <c r="D71" t="s">
         <v>154</v>
       </c>
-      <c r="E71" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3195,10 +3531,16 @@
         <v>155</v>
       </c>
       <c r="E72" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>310</v>
+      </c>
+      <c r="F72" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3211,11 +3553,11 @@
       <c r="D73" t="s">
         <v>156</v>
       </c>
-      <c r="E73" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3228,11 +3570,11 @@
       <c r="D74" t="s">
         <v>157</v>
       </c>
-      <c r="E74" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3245,11 +3587,11 @@
       <c r="D75" t="s">
         <v>158</v>
       </c>
-      <c r="E75" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3262,11 +3604,11 @@
       <c r="D76" t="s">
         <v>159</v>
       </c>
-      <c r="E76" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3279,11 +3621,11 @@
       <c r="D77" t="s">
         <v>160</v>
       </c>
-      <c r="E77" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3296,11 +3638,11 @@
       <c r="D78" t="s">
         <v>161</v>
       </c>
-      <c r="E78" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3313,11 +3655,11 @@
       <c r="D79" t="s">
         <v>162</v>
       </c>
-      <c r="E79" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3330,8 +3672,8 @@
       <c r="D80" t="s">
         <v>163</v>
       </c>
-      <c r="E80" t="s">
-        <v>338</v>
+      <c r="F80" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3347,8 +3689,8 @@
       <c r="D81" t="s">
         <v>164</v>
       </c>
-      <c r="E81" t="s">
-        <v>339</v>
+      <c r="F81" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3364,8 +3706,8 @@
       <c r="D82" t="s">
         <v>165</v>
       </c>
-      <c r="E82" t="s">
-        <v>340</v>
+      <c r="F82" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3381,8 +3723,8 @@
       <c r="D83" t="s">
         <v>166</v>
       </c>
-      <c r="E83" t="s">
-        <v>341</v>
+      <c r="F83" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3398,8 +3740,8 @@
       <c r="D84" t="s">
         <v>167</v>
       </c>
-      <c r="E84" t="s">
-        <v>342</v>
+      <c r="F84" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3415,8 +3757,8 @@
       <c r="D85" t="s">
         <v>168</v>
       </c>
-      <c r="E85" t="s">
-        <v>343</v>
+      <c r="F85" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3432,8 +3774,8 @@
       <c r="D86" t="s">
         <v>169</v>
       </c>
-      <c r="E86" t="s">
-        <v>344</v>
+      <c r="F86" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3449,8 +3791,8 @@
       <c r="D87" t="s">
         <v>170</v>
       </c>
-      <c r="E87" t="s">
-        <v>345</v>
+      <c r="F87" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3466,8 +3808,8 @@
       <c r="D88" t="s">
         <v>171</v>
       </c>
-      <c r="E88" t="s">
-        <v>346</v>
+      <c r="F88" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3483,8 +3825,8 @@
       <c r="D89" t="s">
         <v>172</v>
       </c>
-      <c r="E89" t="s">
-        <v>347</v>
+      <c r="F89" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3501,13 +3843,13 @@
         <v>173</v>
       </c>
       <c r="E90" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="F90" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3523,8 +3865,8 @@
       <c r="D91" t="s">
         <v>174</v>
       </c>
-      <c r="E91" t="s">
-        <v>349</v>
+      <c r="F91" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3540,8 +3882,8 @@
       <c r="D92" t="s">
         <v>175</v>
       </c>
-      <c r="E92" t="s">
-        <v>350</v>
+      <c r="F92" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3557,8 +3899,8 @@
       <c r="D93" t="s">
         <v>176</v>
       </c>
-      <c r="E93" t="s">
-        <v>351</v>
+      <c r="F93" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3574,8 +3916,8 @@
       <c r="D94" t="s">
         <v>177</v>
       </c>
-      <c r="E94" t="s">
-        <v>352</v>
+      <c r="F94" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3591,7 +3933,7 @@
       <c r="D95" t="s">
         <v>178</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3608,8 +3950,8 @@
       <c r="D96" t="s">
         <v>179</v>
       </c>
-      <c r="E96" t="s">
-        <v>353</v>
+      <c r="F96" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3625,8 +3967,8 @@
       <c r="D97" t="s">
         <v>180</v>
       </c>
-      <c r="E97" t="s">
-        <v>354</v>
+      <c r="F97" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3642,8 +3984,8 @@
       <c r="D98" t="s">
         <v>181</v>
       </c>
-      <c r="E98" t="s">
-        <v>355</v>
+      <c r="F98" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3659,8 +4001,8 @@
       <c r="D99" t="s">
         <v>182</v>
       </c>
-      <c r="E99" t="s">
-        <v>356</v>
+      <c r="F99" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3677,13 +4019,13 @@
         <v>183</v>
       </c>
       <c r="E100" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="F100" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3699,8 +4041,8 @@
       <c r="D101" t="s">
         <v>184</v>
       </c>
-      <c r="E101" t="s">
-        <v>358</v>
+      <c r="F101" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3716,8 +4058,8 @@
       <c r="D102" t="s">
         <v>185</v>
       </c>
-      <c r="E102" t="s">
-        <v>359</v>
+      <c r="F102" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3733,8 +4075,8 @@
       <c r="D103" t="s">
         <v>186</v>
       </c>
-      <c r="E103" t="s">
-        <v>360</v>
+      <c r="F103" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3750,8 +4092,8 @@
       <c r="D104" t="s">
         <v>187</v>
       </c>
-      <c r="E104" t="s">
-        <v>361</v>
+      <c r="F104" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3767,8 +4109,8 @@
       <c r="D105" t="s">
         <v>188</v>
       </c>
-      <c r="E105" t="s">
-        <v>362</v>
+      <c r="F105" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3784,8 +4126,8 @@
       <c r="D106" t="s">
         <v>189</v>
       </c>
-      <c r="E106" t="s">
-        <v>363</v>
+      <c r="F106" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3801,8 +4143,8 @@
       <c r="D107" t="s">
         <v>190</v>
       </c>
-      <c r="E107" t="s">
-        <v>364</v>
+      <c r="F107" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3818,8 +4160,8 @@
       <c r="D108" t="s">
         <v>191</v>
       </c>
-      <c r="E108" t="s">
-        <v>365</v>
+      <c r="F108" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3835,8 +4177,8 @@
       <c r="D109" t="s">
         <v>192</v>
       </c>
-      <c r="E109" t="s">
-        <v>366</v>
+      <c r="F109" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3852,7 +4194,7 @@
       <c r="D110" t="s">
         <v>193</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3869,8 +4211,8 @@
       <c r="D111" t="s">
         <v>194</v>
       </c>
-      <c r="E111" t="s">
-        <v>367</v>
+      <c r="F111" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3886,8 +4228,8 @@
       <c r="D112" t="s">
         <v>195</v>
       </c>
-      <c r="E112" t="s">
-        <v>368</v>
+      <c r="F112" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3903,8 +4245,8 @@
       <c r="D113" t="s">
         <v>196</v>
       </c>
-      <c r="E113" t="s">
-        <v>369</v>
+      <c r="F113" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3920,8 +4262,8 @@
       <c r="D114" t="s">
         <v>197</v>
       </c>
-      <c r="E114" t="s">
-        <v>370</v>
+      <c r="F114" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3937,8 +4279,8 @@
       <c r="D115" t="s">
         <v>198</v>
       </c>
-      <c r="E115" t="s">
-        <v>371</v>
+      <c r="F115" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3954,8 +4296,8 @@
       <c r="D116" t="s">
         <v>199</v>
       </c>
-      <c r="E116" t="s">
-        <v>372</v>
+      <c r="F116" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3971,8 +4313,8 @@
       <c r="D117" t="s">
         <v>200</v>
       </c>
-      <c r="E117" t="s">
-        <v>373</v>
+      <c r="F117" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3988,8 +4330,8 @@
       <c r="D118" t="s">
         <v>201</v>
       </c>
-      <c r="E118" t="s">
-        <v>374</v>
+      <c r="F118" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4005,8 +4347,8 @@
       <c r="D119" t="s">
         <v>202</v>
       </c>
-      <c r="E119" t="s">
-        <v>375</v>
+      <c r="F119" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4022,8 +4364,8 @@
       <c r="D120" t="s">
         <v>203</v>
       </c>
-      <c r="E120" t="s">
-        <v>376</v>
+      <c r="F120" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4040,13 +4382,13 @@
         <v>204</v>
       </c>
       <c r="E121" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="F121" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4062,8 +4404,8 @@
       <c r="D122" t="s">
         <v>205</v>
       </c>
-      <c r="E122" t="s">
-        <v>378</v>
+      <c r="F122" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4079,8 +4421,8 @@
       <c r="D123" t="s">
         <v>206</v>
       </c>
-      <c r="E123" t="s">
-        <v>379</v>
+      <c r="F123" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4096,8 +4438,8 @@
       <c r="D124" t="s">
         <v>207</v>
       </c>
-      <c r="E124" t="s">
-        <v>380</v>
+      <c r="F124" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4113,8 +4455,8 @@
       <c r="D125" t="s">
         <v>208</v>
       </c>
-      <c r="E125" t="s">
-        <v>381</v>
+      <c r="F125" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4130,8 +4472,8 @@
       <c r="D126" t="s">
         <v>209</v>
       </c>
-      <c r="E126" t="s">
-        <v>382</v>
+      <c r="F126" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4147,8 +4489,8 @@
       <c r="D127" t="s">
         <v>210</v>
       </c>
-      <c r="E127" t="s">
-        <v>383</v>
+      <c r="F127" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4164,11 +4506,11 @@
       <c r="D128" t="s">
         <v>211</v>
       </c>
-      <c r="E128" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4181,11 +4523,11 @@
       <c r="D129" t="s">
         <v>212</v>
       </c>
-      <c r="E129" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4198,11 +4540,11 @@
       <c r="D130" t="s">
         <v>213</v>
       </c>
-      <c r="E130" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4215,11 +4557,11 @@
       <c r="D131" t="s">
         <v>214</v>
       </c>
-      <c r="E131" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4232,11 +4574,11 @@
       <c r="D132" t="s">
         <v>215</v>
       </c>
-      <c r="E132" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4249,11 +4591,11 @@
       <c r="D133" t="s">
         <v>216</v>
       </c>
-      <c r="E133" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4266,11 +4608,11 @@
       <c r="D134" t="s">
         <v>217</v>
       </c>
-      <c r="E134" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4283,11 +4625,11 @@
       <c r="D135" t="s">
         <v>218</v>
       </c>
-      <c r="E135" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4300,11 +4642,11 @@
       <c r="D136" t="s">
         <v>219</v>
       </c>
-      <c r="E136" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4317,11 +4659,11 @@
       <c r="D137" t="s">
         <v>220</v>
       </c>
-      <c r="E137" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4334,11 +4676,11 @@
       <c r="D138" t="s">
         <v>221</v>
       </c>
-      <c r="E138" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4351,11 +4693,11 @@
       <c r="D139" t="s">
         <v>222</v>
       </c>
-      <c r="E139" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4368,11 +4710,11 @@
       <c r="D140" t="s">
         <v>223</v>
       </c>
-      <c r="E140" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4385,11 +4727,11 @@
       <c r="D141" t="s">
         <v>224</v>
       </c>
-      <c r="E141" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4402,11 +4744,11 @@
       <c r="D142" t="s">
         <v>225</v>
       </c>
-      <c r="E142" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4419,11 +4761,11 @@
       <c r="D143" t="s">
         <v>226</v>
       </c>
-      <c r="E143" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4436,8 +4778,8 @@
       <c r="D144" t="s">
         <v>227</v>
       </c>
-      <c r="E144" t="s">
-        <v>400</v>
+      <c r="F144" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4453,8 +4795,8 @@
       <c r="D145" t="s">
         <v>228</v>
       </c>
-      <c r="E145" t="s">
-        <v>401</v>
+      <c r="F145" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4470,8 +4812,8 @@
       <c r="D146" t="s">
         <v>229</v>
       </c>
-      <c r="E146" t="s">
-        <v>402</v>
+      <c r="F146" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4487,8 +4829,8 @@
       <c r="D147" t="s">
         <v>230</v>
       </c>
-      <c r="E147" t="s">
-        <v>403</v>
+      <c r="F147" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4504,8 +4846,8 @@
       <c r="D148" t="s">
         <v>231</v>
       </c>
-      <c r="E148" t="s">
-        <v>404</v>
+      <c r="F148" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4521,8 +4863,8 @@
       <c r="D149" t="s">
         <v>229</v>
       </c>
-      <c r="E149" t="s">
-        <v>402</v>
+      <c r="F149" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4539,13 +4881,13 @@
         <v>232</v>
       </c>
       <c r="E150" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="F150" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4562,13 +4904,13 @@
         <v>233</v>
       </c>
       <c r="E151" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
       <c r="F151" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4584,8 +4926,8 @@
       <c r="D152" t="s">
         <v>234</v>
       </c>
-      <c r="E152" t="s">
-        <v>407</v>
+      <c r="F152" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4601,8 +4943,8 @@
       <c r="D153" t="s">
         <v>235</v>
       </c>
-      <c r="E153" t="s">
-        <v>408</v>
+      <c r="F153" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4618,8 +4960,8 @@
       <c r="D154" t="s">
         <v>236</v>
       </c>
-      <c r="E154" t="s">
-        <v>409</v>
+      <c r="F154" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4635,8 +4977,8 @@
       <c r="D155" t="s">
         <v>205</v>
       </c>
-      <c r="E155" t="s">
-        <v>378</v>
+      <c r="F155" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4652,8 +4994,8 @@
       <c r="D156" t="s">
         <v>237</v>
       </c>
-      <c r="E156" t="s">
-        <v>410</v>
+      <c r="F156" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4669,8 +5011,8 @@
       <c r="D157" t="s">
         <v>238</v>
       </c>
-      <c r="E157" t="s">
-        <v>411</v>
+      <c r="F157" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4686,8 +5028,8 @@
       <c r="D158" t="s">
         <v>239</v>
       </c>
-      <c r="E158" t="s">
-        <v>412</v>
+      <c r="F158" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4703,8 +5045,8 @@
       <c r="D159" t="s">
         <v>240</v>
       </c>
-      <c r="E159" t="s">
-        <v>413</v>
+      <c r="F159" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4720,11 +5062,11 @@
       <c r="D160" t="s">
         <v>241</v>
       </c>
-      <c r="E160" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4737,11 +5079,11 @@
       <c r="D161" t="s">
         <v>242</v>
       </c>
-      <c r="E161" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4754,11 +5096,11 @@
       <c r="D162" t="s">
         <v>243</v>
       </c>
-      <c r="E162" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4771,11 +5113,11 @@
       <c r="D163" t="s">
         <v>244</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4788,11 +5130,11 @@
       <c r="D164" t="s">
         <v>245</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4805,11 +5147,11 @@
       <c r="D165" t="s">
         <v>246</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4822,11 +5164,11 @@
       <c r="D166" t="s">
         <v>247</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4839,11 +5181,11 @@
       <c r="D167" t="s">
         <v>248</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4856,11 +5198,11 @@
       <c r="D168" t="s">
         <v>249</v>
       </c>
-      <c r="E168" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4873,11 +5215,11 @@
       <c r="D169" t="s">
         <v>250</v>
       </c>
-      <c r="E169" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4890,11 +5232,11 @@
       <c r="D170" t="s">
         <v>251</v>
       </c>
-      <c r="E170" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4907,11 +5249,11 @@
       <c r="D171" t="s">
         <v>252</v>
       </c>
-      <c r="E171" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4924,11 +5266,11 @@
       <c r="D172" t="s">
         <v>253</v>
       </c>
-      <c r="E172" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4939,10 +5281,16 @@
         <v>254</v>
       </c>
       <c r="E173" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>264</v>
+      </c>
+      <c r="F173" t="s">
+        <v>478</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4952,11 +5300,11 @@
       <c r="D174" t="s">
         <v>255</v>
       </c>
-      <c r="E174" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4966,11 +5314,11 @@
       <c r="D175" t="s">
         <v>256</v>
       </c>
-      <c r="E175" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4980,11 +5328,11 @@
       <c r="D176" t="s">
         <v>257</v>
       </c>
-      <c r="E176" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4995,10 +5343,16 @@
         <v>258</v>
       </c>
       <c r="E177" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="F177" t="s">
+        <v>482</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5009,10 +5363,16 @@
         <v>259</v>
       </c>
       <c r="E178" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="F178" t="s">
+        <v>483</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5023,38 +5383,76 @@
         <v>260</v>
       </c>
       <c r="E179" t="s">
-        <v>428</v>
+        <v>313</v>
+      </c>
+      <c r="F179" t="s">
+        <v>484</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G6" r:id="rId2"/>
-    <hyperlink ref="G13" r:id="rId3"/>
-    <hyperlink ref="G17" r:id="rId4"/>
-    <hyperlink ref="G24" r:id="rId5"/>
-    <hyperlink ref="G27" r:id="rId6"/>
-    <hyperlink ref="G29" r:id="rId7"/>
-    <hyperlink ref="G33" r:id="rId8"/>
-    <hyperlink ref="G37" r:id="rId9"/>
-    <hyperlink ref="G38" r:id="rId10"/>
-    <hyperlink ref="G39" r:id="rId11"/>
-    <hyperlink ref="G40" r:id="rId12"/>
-    <hyperlink ref="G43" r:id="rId13"/>
-    <hyperlink ref="G44" r:id="rId14"/>
-    <hyperlink ref="G45" r:id="rId15"/>
-    <hyperlink ref="G46" r:id="rId16"/>
-    <hyperlink ref="G49" r:id="rId17"/>
-    <hyperlink ref="G50" r:id="rId18"/>
-    <hyperlink ref="G52" r:id="rId19"/>
-    <hyperlink ref="G54" r:id="rId20"/>
-    <hyperlink ref="G55" r:id="rId21"/>
-    <hyperlink ref="G60" r:id="rId22"/>
-    <hyperlink ref="G90" r:id="rId23"/>
-    <hyperlink ref="G100" r:id="rId24"/>
-    <hyperlink ref="G121" r:id="rId25"/>
-    <hyperlink ref="G150" r:id="rId26"/>
-    <hyperlink ref="G151" r:id="rId27"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="G18" r:id="rId14"/>
+    <hyperlink ref="G19" r:id="rId15"/>
+    <hyperlink ref="G21" r:id="rId16"/>
+    <hyperlink ref="G22" r:id="rId17"/>
+    <hyperlink ref="G24" r:id="rId18"/>
+    <hyperlink ref="G25" r:id="rId19"/>
+    <hyperlink ref="G26" r:id="rId20"/>
+    <hyperlink ref="G27" r:id="rId21"/>
+    <hyperlink ref="G29" r:id="rId22"/>
+    <hyperlink ref="G30" r:id="rId23"/>
+    <hyperlink ref="G31" r:id="rId24"/>
+    <hyperlink ref="G32" r:id="rId25"/>
+    <hyperlink ref="G33" r:id="rId26"/>
+    <hyperlink ref="G36" r:id="rId27"/>
+    <hyperlink ref="G37" r:id="rId28"/>
+    <hyperlink ref="G38" r:id="rId29"/>
+    <hyperlink ref="G39" r:id="rId30"/>
+    <hyperlink ref="G40" r:id="rId31"/>
+    <hyperlink ref="G43" r:id="rId32"/>
+    <hyperlink ref="G44" r:id="rId33"/>
+    <hyperlink ref="G45" r:id="rId34"/>
+    <hyperlink ref="G46" r:id="rId35"/>
+    <hyperlink ref="G49" r:id="rId36"/>
+    <hyperlink ref="G50" r:id="rId37"/>
+    <hyperlink ref="G52" r:id="rId38"/>
+    <hyperlink ref="G53" r:id="rId39"/>
+    <hyperlink ref="G54" r:id="rId40"/>
+    <hyperlink ref="G55" r:id="rId41"/>
+    <hyperlink ref="G56" r:id="rId42"/>
+    <hyperlink ref="G58" r:id="rId43"/>
+    <hyperlink ref="G59" r:id="rId44"/>
+    <hyperlink ref="G60" r:id="rId45"/>
+    <hyperlink ref="G61" r:id="rId46"/>
+    <hyperlink ref="G63" r:id="rId47"/>
+    <hyperlink ref="G64" r:id="rId48"/>
+    <hyperlink ref="G70" r:id="rId49"/>
+    <hyperlink ref="G72" r:id="rId50"/>
+    <hyperlink ref="G90" r:id="rId51"/>
+    <hyperlink ref="G100" r:id="rId52"/>
+    <hyperlink ref="G121" r:id="rId53"/>
+    <hyperlink ref="G150" r:id="rId54"/>
+    <hyperlink ref="G151" r:id="rId55"/>
+    <hyperlink ref="G173" r:id="rId56"/>
+    <hyperlink ref="G177" r:id="rId57"/>
+    <hyperlink ref="G178" r:id="rId58"/>
+    <hyperlink ref="G179" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
